--- a/data/trans_orig/P21D2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18A8184F-5E43-4E5D-8864-4F9B846D5817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABC6D4DF-C502-487F-A6AA-B4BC4A60FC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9B67BB7B-B97B-4F1A-B621-50E91E4DAC65}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EEA33021-A25D-4FA1-B1D7-108FE6DD27A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="250">
-  <si>
-    <t>Población que, necesitandolo, no pudo recibir atención dental en 2023 (Tasa respuesta: 43,85%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="249">
+  <si>
+    <t>Población que, necesitándolo, no pudo recibir atención dental en 2023 (Tasa respuesta: 43,85%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>39,07%</t>
   </si>
   <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
   </si>
   <si>
     <t>44,66%</t>
   </si>
   <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
   </si>
   <si>
     <t>41,6%</t>
   </si>
   <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>58,78%</t>
   </si>
   <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
   </si>
   <si>
     <t>50,17%</t>
   </si>
   <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
   </si>
   <si>
     <t>54,88%</t>
   </si>
   <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -137,13 +137,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,1%</t>
+    <t>8,48%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>10,79%</t>
+    <t>11,06%</t>
   </si>
   <si>
     <t>2,56%</t>
@@ -152,7 +152,7 @@
     <t>0,65%</t>
   </si>
   <si>
-    <t>7,36%</t>
+    <t>7,58%</t>
   </si>
   <si>
     <t>No lo pudo recibir por motivos económicos</t>
@@ -161,628 +161,625 @@
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>65,79%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>46,8%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>53,31%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>4,1%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1197,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35CA0F6-F875-4725-97DF-BE3E483C58B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4434E1-545E-4F7A-87C8-D748B8F2D0E7}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1937,13 +1934,13 @@
         <v>876</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1952,13 +1949,13 @@
         <v>2354</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -1967,13 +1964,13 @@
         <v>3230</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,13 +1985,13 @@
         <v>2715</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -2003,13 +2000,13 @@
         <v>6809</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -2018,13 +2015,13 @@
         <v>9524</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2200,7 +2197,7 @@
         <v>137</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2209,10 +2206,10 @@
         <v>3219</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>139</v>
+        <v>72</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>140</v>
@@ -2224,13 +2221,13 @@
         <v>7084</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2245,13 +2242,13 @@
         <v>9239</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -2260,13 +2257,13 @@
         <v>12598</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -2275,13 +2272,13 @@
         <v>21838</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,7 +2334,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2349,13 +2346,13 @@
         <v>103423</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>143</v>
@@ -2364,13 +2361,13 @@
         <v>89332</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>259</v>
@@ -2379,13 +2376,13 @@
         <v>192755</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,13 +2397,13 @@
         <v>141578</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>242</v>
@@ -2415,13 +2412,13 @@
         <v>145233</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>392</v>
@@ -2430,13 +2427,13 @@
         <v>286810</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2451,13 +2448,13 @@
         <v>548</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2466,13 +2463,13 @@
         <v>3827</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>75</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2481,13 +2478,13 @@
         <v>4374</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2499,13 @@
         <v>10023</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H27" s="7">
         <v>20</v>
@@ -2517,13 +2514,13 @@
         <v>9760</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="M27" s="7">
         <v>31</v>
@@ -2532,13 +2529,13 @@
         <v>19782</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,7 +2591,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2606,13 +2603,13 @@
         <v>143312</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>364</v>
@@ -2621,13 +2618,13 @@
         <v>199451</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>584</v>
@@ -2636,13 +2633,13 @@
         <v>342763</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2657,13 +2654,13 @@
         <v>145690</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="H30" s="7">
         <v>338</v>
@@ -2675,10 +2672,10 @@
         <v>195</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M30" s="7">
         <v>547</v>
@@ -2687,13 +2684,13 @@
         <v>331115</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2708,13 +2705,13 @@
         <v>2571</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H31" s="7">
         <v>10</v>
@@ -2723,13 +2720,13 @@
         <v>5316</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -2738,13 +2735,13 @@
         <v>7887</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,13 +2756,13 @@
         <v>1878</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -2774,13 +2771,13 @@
         <v>4414</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>211</v>
+        <v>148</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -2789,13 +2786,13 @@
         <v>6292</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2863,13 +2860,13 @@
         <v>626909</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H34" s="7">
         <v>941</v>
@@ -2878,13 +2875,13 @@
         <v>665022</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M34" s="7">
         <v>1603</v>
@@ -2893,13 +2890,13 @@
         <v>1291931</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2914,13 +2911,13 @@
         <v>852856</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H35" s="7">
         <v>1350</v>
@@ -2929,13 +2926,13 @@
         <v>957593</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M35" s="7">
         <v>2102</v>
@@ -2944,13 +2941,13 @@
         <v>1810449</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,13 +2962,13 @@
         <v>13375</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>233</v>
+        <v>80</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -2980,13 +2977,13 @@
         <v>19731</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>237</v>
+        <v>102</v>
       </c>
       <c r="M36" s="7">
         <v>39</v>
@@ -2995,13 +2992,13 @@
         <v>33106</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,7 +3016,7 @@
         <v>241</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>242</v>
@@ -3031,13 +3028,13 @@
         <v>40368</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M37" s="7">
         <v>90</v>
@@ -3046,13 +3043,13 @@
         <v>65759</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3108,7 +3105,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D2_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ABC6D4DF-C502-487F-A6AA-B4BC4A60FC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5711959-E42E-40AF-A1B8-21ED4AAD2843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EEA33021-A25D-4FA1-B1D7-108FE6DD27A5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D93DBBEC-6B7A-4842-A4DF-65A1019BA5FD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1194,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4434E1-545E-4F7A-87C8-D748B8F2D0E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4094D6-E2B2-46DE-ACEC-F4CD775505AA}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P21D2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5711959-E42E-40AF-A1B8-21ED4AAD2843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31544062-9CD6-4DE3-9B33-2F54FFCFEDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D93DBBEC-6B7A-4842-A4DF-65A1019BA5FD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{88CC1C3B-D66A-45AC-8980-2CEE25F02825}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="250">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención dental en 2023 (Tasa respuesta: 43,85%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>39,07%</t>
   </si>
   <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>51,44%</t>
   </si>
   <si>
     <t>44,66%</t>
   </si>
   <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>54,81%</t>
   </si>
   <si>
     <t>41,6%</t>
   </si>
   <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
@@ -104,28 +104,28 @@
     <t>58,78%</t>
   </si>
   <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
   </si>
   <si>
     <t>50,17%</t>
   </si>
   <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
   </si>
   <si>
     <t>54,88%</t>
   </si>
   <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
   </si>
   <si>
     <t>No lo pudo recibir por otros motivos</t>
@@ -137,13 +137,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,48%</t>
+    <t>11,1%</t>
   </si>
   <si>
     <t>3,16%</t>
   </si>
   <si>
-    <t>11,06%</t>
+    <t>10,79%</t>
   </si>
   <si>
     <t>2,56%</t>
@@ -152,7 +152,7 @@
     <t>0,65%</t>
   </si>
   <si>
-    <t>7,58%</t>
+    <t>7,36%</t>
   </si>
   <si>
     <t>No lo pudo recibir por motivos económicos</t>
@@ -161,625 +161,628 @@
     <t>0,08%</t>
   </si>
   <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
+  </si>
+  <si>
+    <t>62,94%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>67,97%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>55,73%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>55,74%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>44,47%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>52,8%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>41,28%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>48,89%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>67,61%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>59,26%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>63,09%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>52,88%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
   </si>
   <si>
     <t>2,05%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1194,7 +1197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4094D6-E2B2-46DE-ACEC-F4CD775505AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35F3A03-59A5-4981-99E4-C7BF03D66384}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1934,13 +1937,13 @@
         <v>876</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -1949,13 +1952,13 @@
         <v>2354</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -1964,13 +1967,13 @@
         <v>3230</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,13 +1988,13 @@
         <v>2715</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -2000,13 +2003,13 @@
         <v>6809</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -2015,13 +2018,13 @@
         <v>9524</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2197,7 +2200,7 @@
         <v>137</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -2206,10 +2209,10 @@
         <v>3219</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>140</v>
@@ -2221,13 +2224,13 @@
         <v>7084</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,13 +2245,13 @@
         <v>9239</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -2257,13 +2260,13 @@
         <v>12598</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
@@ -2272,13 +2275,13 @@
         <v>21838</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,7 +2337,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2346,13 +2349,13 @@
         <v>103423</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>143</v>
@@ -2361,13 +2364,13 @@
         <v>89332</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>259</v>
@@ -2376,13 +2379,13 @@
         <v>192755</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,13 +2400,13 @@
         <v>141578</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H25" s="7">
         <v>242</v>
@@ -2412,13 +2415,13 @@
         <v>145233</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M25" s="7">
         <v>392</v>
@@ -2427,13 +2430,13 @@
         <v>286810</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,13 +2451,13 @@
         <v>548</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -2463,13 +2466,13 @@
         <v>3827</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
@@ -2478,13 +2481,13 @@
         <v>4374</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,13 +2502,13 @@
         <v>10023</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H27" s="7">
         <v>20</v>
@@ -2514,13 +2517,13 @@
         <v>9760</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="M27" s="7">
         <v>31</v>
@@ -2529,13 +2532,13 @@
         <v>19782</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P27" s="7" t="s">
-        <v>185</v>
-      </c>
       <c r="Q27" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,7 +2594,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2603,13 +2606,13 @@
         <v>143312</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H29" s="7">
         <v>364</v>
@@ -2618,13 +2621,13 @@
         <v>199451</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>192</v>
+        <v>28</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="M29" s="7">
         <v>584</v>
@@ -2633,13 +2636,13 @@
         <v>342763</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2654,13 +2657,13 @@
         <v>145690</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="H30" s="7">
         <v>338</v>
@@ -2672,10 +2675,10 @@
         <v>195</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="M30" s="7">
         <v>547</v>
@@ -2684,13 +2687,13 @@
         <v>331115</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,13 +2708,13 @@
         <v>2571</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>137</v>
+        <v>202</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H31" s="7">
         <v>10</v>
@@ -2720,13 +2723,13 @@
         <v>5316</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -2735,13 +2738,13 @@
         <v>7887</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,13 +2759,13 @@
         <v>1878</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -2771,13 +2774,13 @@
         <v>4414</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="K32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M32" s="7">
         <v>10</v>
@@ -2786,13 +2789,13 @@
         <v>6292</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P32" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="Q32" s="7" t="s">
-        <v>217</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,13 +2863,13 @@
         <v>626909</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H34" s="7">
         <v>941</v>
@@ -2875,13 +2878,13 @@
         <v>665022</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M34" s="7">
         <v>1603</v>
@@ -2890,13 +2893,13 @@
         <v>1291931</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2911,13 +2914,13 @@
         <v>852856</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H35" s="7">
         <v>1350</v>
@@ -2926,13 +2929,13 @@
         <v>957593</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M35" s="7">
         <v>2102</v>
@@ -2941,13 +2944,13 @@
         <v>1810449</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,13 +2965,13 @@
         <v>13375</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>80</v>
+        <v>233</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H36" s="7">
         <v>27</v>
@@ -2977,13 +2980,13 @@
         <v>19731</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M36" s="7">
         <v>39</v>
@@ -2992,13 +2995,13 @@
         <v>33106</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3016,7 +3019,7 @@
         <v>241</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>242</v>
@@ -3028,13 +3031,13 @@
         <v>40368</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M37" s="7">
         <v>90</v>
@@ -3043,13 +3046,13 @@
         <v>65759</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,7 +3108,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P21D2_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21D2_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31544062-9CD6-4DE3-9B33-2F54FFCFEDE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AA09185-6387-4EBA-BC03-64461E69F589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{88CC1C3B-D66A-45AC-8980-2CEE25F02825}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{243A80FE-C0DD-43DD-8469-45A8A2086C1E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="273">
   <si>
     <t>Población que, necesitándolo, no pudo recibir atención dental en 2023 (Tasa respuesta: 43,85%)</t>
   </si>
@@ -65,724 +65,793 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>No lo ha necesitado</t>
   </si>
   <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>54,81%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
+    <t>34,42%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
   </si>
   <si>
     <t>Sí lo pudo recibir</t>
   </si>
   <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por otros motivos</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>No lo pudo recibir por motivos económicos</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>51,9%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>63,78%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
   </si>
   <si>
     <t>60,53%</t>
   </si>
   <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por otros motivos</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>No lo pudo recibir por motivos económicos</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
+  </si>
+  <si>
+    <t>40,28%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>50,52%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>55,13%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>64,28%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>68,92%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>62,94%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>64,08%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
   </si>
   <si>
     <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>56,55%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1197,8 +1266,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C35F3A03-59A5-4981-99E4-C7BF03D66384}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B39895D4-6BF9-4BE3-B9A1-22A10F7F4EFC}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1318,7 +1387,7 @@
         <v>39</v>
       </c>
       <c r="D4" s="7">
-        <v>74918</v>
+        <v>70204</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1333,7 +1402,7 @@
         <v>42</v>
       </c>
       <c r="I4" s="7">
-        <v>70854</v>
+        <v>59981</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1348,7 +1417,7 @@
         <v>81</v>
       </c>
       <c r="N4" s="7">
-        <v>145773</v>
+        <v>130184</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1369,7 +1438,7 @@
         <v>43</v>
       </c>
       <c r="D5" s="7">
-        <v>112732</v>
+        <v>129289</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1384,7 +1453,7 @@
         <v>46</v>
       </c>
       <c r="I5" s="7">
-        <v>79595</v>
+        <v>70838</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1399,7 +1468,7 @@
         <v>89</v>
       </c>
       <c r="N5" s="7">
-        <v>192327</v>
+        <v>200126</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1420,7 +1489,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>3964</v>
+        <v>4285</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1435,7 +1504,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>5016</v>
+        <v>6533</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1450,7 +1519,7 @@
         <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>8980</v>
+        <v>10817</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
@@ -1471,7 +1540,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1486,7 +1555,7 @@
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>3189</v>
+        <v>2995</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>42</v>
@@ -1501,7 +1570,7 @@
         <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>3350</v>
+        <v>3166</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>45</v>
@@ -1522,7 +1591,7 @@
         <v>85</v>
       </c>
       <c r="D8" s="7">
-        <v>191775</v>
+        <v>203949</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>48</v>
@@ -1537,7 +1606,7 @@
         <v>93</v>
       </c>
       <c r="I8" s="7">
-        <v>158654</v>
+        <v>140346</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>48</v>
@@ -1552,7 +1621,7 @@
         <v>178</v>
       </c>
       <c r="N8" s="7">
-        <v>350430</v>
+        <v>344294</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1575,7 +1644,7 @@
         <v>71</v>
       </c>
       <c r="D9" s="7">
-        <v>97916</v>
+        <v>95401</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>50</v>
@@ -1590,7 +1659,7 @@
         <v>84</v>
       </c>
       <c r="I9" s="7">
-        <v>101943</v>
+        <v>145158</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>53</v>
@@ -1605,7 +1674,7 @@
         <v>155</v>
       </c>
       <c r="N9" s="7">
-        <v>199858</v>
+        <v>240558</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>56</v>
@@ -1626,7 +1695,7 @@
         <v>71</v>
       </c>
       <c r="D10" s="7">
-        <v>105676</v>
+        <v>106251</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>59</v>
@@ -1641,7 +1710,7 @@
         <v>137</v>
       </c>
       <c r="I10" s="7">
-        <v>149473</v>
+        <v>140590</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>62</v>
@@ -1656,7 +1725,7 @@
         <v>208</v>
       </c>
       <c r="N10" s="7">
-        <v>255150</v>
+        <v>246841</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>65</v>
@@ -1677,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1550</v>
+        <v>1361</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>68</v>
@@ -1707,7 +1776,7 @@
         <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>1550</v>
+        <v>1361</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>72</v>
@@ -1728,7 +1797,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>1376</v>
+        <v>1709</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>74</v>
@@ -1743,7 +1812,7 @@
         <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>3598</v>
+        <v>3712</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>76</v>
@@ -1758,7 +1827,7 @@
         <v>8</v>
       </c>
       <c r="N12" s="7">
-        <v>4974</v>
+        <v>5421</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>79</v>
@@ -1779,7 +1848,7 @@
         <v>145</v>
       </c>
       <c r="D13" s="7">
-        <v>206518</v>
+        <v>204722</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>48</v>
@@ -1794,7 +1863,7 @@
         <v>227</v>
       </c>
       <c r="I13" s="7">
-        <v>255014</v>
+        <v>289459</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>48</v>
@@ -1809,7 +1878,7 @@
         <v>372</v>
       </c>
       <c r="N13" s="7">
-        <v>461532</v>
+        <v>494181</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>48</v>
@@ -1832,7 +1901,7 @@
         <v>97</v>
       </c>
       <c r="D14" s="7">
-        <v>94335</v>
+        <v>89343</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>83</v>
@@ -1847,7 +1916,7 @@
         <v>135</v>
       </c>
       <c r="I14" s="7">
-        <v>93378</v>
+        <v>84964</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>86</v>
@@ -1862,7 +1931,7 @@
         <v>232</v>
       </c>
       <c r="N14" s="7">
-        <v>187713</v>
+        <v>174307</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>89</v>
@@ -1883,7 +1952,7 @@
         <v>117</v>
       </c>
       <c r="D15" s="7">
-        <v>125849</v>
+        <v>122073</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>92</v>
@@ -1892,37 +1961,37 @@
         <v>93</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
         <v>247</v>
       </c>
       <c r="I15" s="7">
-        <v>174812</v>
+        <v>164345</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M15" s="7">
         <v>364</v>
       </c>
       <c r="N15" s="7">
-        <v>300661</v>
+        <v>286418</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,10 +2003,10 @@
         <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>876</v>
+        <v>1009</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>32</v>
@@ -1949,31 +2018,31 @@
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>2354</v>
+        <v>2205</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>3230</v>
+        <v>3214</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,46 +2054,46 @@
         <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>2715</v>
+        <v>3061</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>6809</v>
+        <v>6175</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
       </c>
       <c r="N17" s="7">
-        <v>9524</v>
+        <v>9236</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2036,7 +2105,7 @@
         <v>222</v>
       </c>
       <c r="D18" s="7">
-        <v>223775</v>
+        <v>215486</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>48</v>
@@ -2051,7 +2120,7 @@
         <v>395</v>
       </c>
       <c r="I18" s="7">
-        <v>277353</v>
+        <v>257689</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>48</v>
@@ -2066,7 +2135,7 @@
         <v>617</v>
       </c>
       <c r="N18" s="7">
-        <v>501128</v>
+        <v>473175</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>48</v>
@@ -2080,7 +2149,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2089,46 +2158,46 @@
         <v>119</v>
       </c>
       <c r="D19" s="7">
-        <v>113005</v>
+        <v>106335</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>173</v>
       </c>
       <c r="I19" s="7">
-        <v>110064</v>
+        <v>99985</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>292</v>
       </c>
       <c r="N19" s="7">
-        <v>223069</v>
+        <v>206320</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2140,46 +2209,46 @@
         <v>162</v>
       </c>
       <c r="D20" s="7">
-        <v>221330</v>
+        <v>407461</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H20" s="7">
         <v>340</v>
       </c>
       <c r="I20" s="7">
-        <v>223056</v>
+        <v>207523</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M20" s="7">
         <v>502</v>
       </c>
       <c r="N20" s="7">
-        <v>444386</v>
+        <v>614983</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2191,46 +2260,46 @@
         <v>4</v>
       </c>
       <c r="D21" s="7">
-        <v>3865</v>
+        <v>3732</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
       </c>
       <c r="I21" s="7">
-        <v>3219</v>
+        <v>3038</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
       </c>
       <c r="N21" s="7">
-        <v>7084</v>
+        <v>6770</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2242,46 +2311,46 @@
         <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>9239</v>
+        <v>9029</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
       </c>
       <c r="I22" s="7">
-        <v>12598</v>
+        <v>10317</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>21</v>
       </c>
       <c r="N22" s="7">
-        <v>21838</v>
+        <v>19346</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2293,7 +2362,7 @@
         <v>296</v>
       </c>
       <c r="D23" s="7">
-        <v>347440</v>
+        <v>526558</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>48</v>
@@ -2308,7 +2377,7 @@
         <v>528</v>
       </c>
       <c r="I23" s="7">
-        <v>348936</v>
+        <v>320862</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>48</v>
@@ -2323,7 +2392,7 @@
         <v>824</v>
       </c>
       <c r="N23" s="7">
-        <v>696376</v>
+        <v>847419</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>48</v>
@@ -2337,7 +2406,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2346,46 +2415,46 @@
         <v>116</v>
       </c>
       <c r="D24" s="7">
-        <v>103423</v>
+        <v>94412</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>143</v>
       </c>
       <c r="I24" s="7">
-        <v>89332</v>
+        <v>80376</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M24" s="7">
         <v>259</v>
       </c>
       <c r="N24" s="7">
-        <v>192755</v>
+        <v>174789</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>51</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,46 +2466,46 @@
         <v>150</v>
       </c>
       <c r="D25" s="7">
-        <v>141578</v>
+        <v>133812</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H25" s="7">
         <v>242</v>
       </c>
       <c r="I25" s="7">
-        <v>145233</v>
+        <v>134225</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="M25" s="7">
         <v>392</v>
       </c>
       <c r="N25" s="7">
-        <v>286810</v>
+        <v>268038</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2448,46 +2517,46 @@
         <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>548</v>
+        <v>512</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
       </c>
       <c r="I26" s="7">
-        <v>3827</v>
+        <v>3624</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M26" s="7">
         <v>7</v>
       </c>
       <c r="N26" s="7">
-        <v>4374</v>
+        <v>4136</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,46 +2568,46 @@
         <v>11</v>
       </c>
       <c r="D27" s="7">
-        <v>10023</v>
+        <v>9767</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H27" s="7">
         <v>20</v>
       </c>
       <c r="I27" s="7">
-        <v>9760</v>
+        <v>9101</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M27" s="7">
         <v>31</v>
       </c>
       <c r="N27" s="7">
-        <v>19782</v>
+        <v>18868</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>179</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,7 +2619,7 @@
         <v>278</v>
       </c>
       <c r="D28" s="7">
-        <v>255571</v>
+        <v>238504</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>48</v>
@@ -2565,7 +2634,7 @@
         <v>411</v>
       </c>
       <c r="I28" s="7">
-        <v>248151</v>
+        <v>227326</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>48</v>
@@ -2580,7 +2649,7 @@
         <v>689</v>
       </c>
       <c r="N28" s="7">
-        <v>503721</v>
+        <v>465830</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>48</v>
@@ -2594,55 +2663,55 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="D29" s="7">
-        <v>143312</v>
+        <v>63841</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>156</v>
+      </c>
+      <c r="I29" s="7">
+        <v>78262</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="H29" s="7">
-        <v>364</v>
-      </c>
-      <c r="I29" s="7">
-        <v>199451</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>261</v>
+      </c>
+      <c r="N29" s="7">
+        <v>142102</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="M29" s="7">
-        <v>584</v>
-      </c>
-      <c r="N29" s="7">
-        <v>342763</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,25 +2720,25 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
+        <v>132</v>
+      </c>
+      <c r="D30" s="7">
+        <v>88311</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H30" s="7">
         <v>209</v>
       </c>
-      <c r="D30" s="7">
-        <v>145690</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H30" s="7">
-        <v>338</v>
-      </c>
       <c r="I30" s="7">
-        <v>185425</v>
+        <v>102466</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>195</v>
@@ -2681,10 +2750,10 @@
         <v>197</v>
       </c>
       <c r="M30" s="7">
-        <v>547</v>
+        <v>341</v>
       </c>
       <c r="N30" s="7">
-        <v>331115</v>
+        <v>190776</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>198</v>
@@ -2705,7 +2774,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>2571</v>
+        <v>2454</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>201</v>
@@ -2717,34 +2786,34 @@
         <v>203</v>
       </c>
       <c r="H31" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I31" s="7">
-        <v>5316</v>
+        <v>3015</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>9</v>
+      </c>
+      <c r="N31" s="7">
+        <v>5468</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="M31" s="7">
-        <v>13</v>
-      </c>
-      <c r="N31" s="7">
-        <v>7887</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2756,10 +2825,10 @@
         <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>1878</v>
+        <v>1749</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>105</v>
+        <v>209</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>32</v>
@@ -2768,10 +2837,10 @@
         <v>210</v>
       </c>
       <c r="H32" s="7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I32" s="7">
-        <v>4414</v>
+        <v>2118</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>211</v>
@@ -2783,10 +2852,10 @@
         <v>213</v>
       </c>
       <c r="M32" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N32" s="7">
-        <v>6292</v>
+        <v>3867</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>214</v>
@@ -2795,7 +2864,7 @@
         <v>215</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2804,10 +2873,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>434</v>
+        <v>242</v>
       </c>
       <c r="D33" s="7">
-        <v>293451</v>
+        <v>156354</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>48</v>
@@ -2819,10 +2888,10 @@
         <v>48</v>
       </c>
       <c r="H33" s="7">
-        <v>720</v>
+        <v>375</v>
       </c>
       <c r="I33" s="7">
-        <v>394606</v>
+        <v>185860</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>48</v>
@@ -2834,10 +2903,10 @@
         <v>48</v>
       </c>
       <c r="M33" s="7">
-        <v>1154</v>
+        <v>617</v>
       </c>
       <c r="N33" s="7">
-        <v>688057</v>
+        <v>342213</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>48</v>
@@ -2851,55 +2920,55 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>662</v>
+        <v>115</v>
       </c>
       <c r="D34" s="7">
-        <v>626909</v>
+        <v>68136</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H34" s="7">
-        <v>941</v>
+        <v>208</v>
       </c>
       <c r="I34" s="7">
-        <v>665022</v>
+        <v>101206</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M34" s="7">
-        <v>1603</v>
+        <v>323</v>
       </c>
       <c r="N34" s="7">
-        <v>1291931</v>
+        <v>169343</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,49 +2977,49 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>752</v>
+        <v>77</v>
       </c>
       <c r="D35" s="7">
-        <v>852856</v>
+        <v>50070</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H35" s="7">
-        <v>1350</v>
+        <v>129</v>
       </c>
       <c r="I35" s="7">
-        <v>957593</v>
+        <v>65496</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M35" s="7">
-        <v>2102</v>
+        <v>206</v>
       </c>
       <c r="N35" s="7">
-        <v>1810449</v>
+        <v>115567</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,28 +3028,28 @@
         <v>30</v>
       </c>
       <c r="C36" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D36" s="7">
-        <v>13375</v>
+        <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>233</v>
+        <v>70</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H36" s="7">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I36" s="7">
-        <v>19731</v>
+        <v>1895</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>235</v>
+        <v>144</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>236</v>
@@ -2989,10 +3058,10 @@
         <v>237</v>
       </c>
       <c r="M36" s="7">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="N36" s="7">
-        <v>33106</v>
+        <v>1895</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>238</v>
@@ -3010,49 +3079,49 @@
         <v>39</v>
       </c>
       <c r="C37" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="D37" s="7">
-        <v>25391</v>
+        <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="H37" s="7">
+        <v>4</v>
+      </c>
+      <c r="I37" s="7">
+        <v>2017</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F37" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="H37" s="7">
-        <v>56</v>
-      </c>
-      <c r="I37" s="7">
-        <v>40368</v>
-      </c>
-      <c r="J37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>4</v>
+      </c>
+      <c r="N37" s="7">
+        <v>2017</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="P37" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="M37" s="7">
-        <v>90</v>
-      </c>
-      <c r="N37" s="7">
-        <v>65759</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3061,63 +3130,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>192</v>
+      </c>
+      <c r="D38" s="7">
+        <v>118206</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="7">
+        <v>345</v>
+      </c>
+      <c r="I38" s="7">
+        <v>170615</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38" s="7">
+        <v>537</v>
+      </c>
+      <c r="N38" s="7">
+        <v>288822</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>662</v>
+      </c>
+      <c r="D39" s="7">
+        <v>587671</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="H39" s="7">
+        <v>941</v>
+      </c>
+      <c r="I39" s="7">
+        <v>649931</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M39" s="7">
+        <v>1603</v>
+      </c>
+      <c r="N39" s="7">
+        <v>1237602</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>752</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1037267</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="H40" s="7">
+        <v>1350</v>
+      </c>
+      <c r="I40" s="7">
+        <v>885482</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M40" s="7">
+        <v>2102</v>
+      </c>
+      <c r="N40" s="7">
+        <v>1922749</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="7">
+        <v>12</v>
+      </c>
+      <c r="D41" s="7">
+        <v>13353</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H41" s="7">
+        <v>27</v>
+      </c>
+      <c r="I41" s="7">
+        <v>20309</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M41" s="7">
+        <v>39</v>
+      </c>
+      <c r="N41" s="7">
+        <v>33662</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="7">
+        <v>34</v>
+      </c>
+      <c r="D42" s="7">
+        <v>25487</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H42" s="7">
+        <v>56</v>
+      </c>
+      <c r="I42" s="7">
+        <v>36433</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="M42" s="7">
+        <v>90</v>
+      </c>
+      <c r="N42" s="7">
+        <v>61921</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>1460</v>
       </c>
-      <c r="D38" s="7">
-        <v>1518531</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>1663778</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="7">
         <v>2374</v>
       </c>
-      <c r="I38" s="7">
-        <v>1682713</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>1592156</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M43" s="7">
         <v>3834</v>
       </c>
-      <c r="N38" s="7">
-        <v>3201244</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>249</v>
+      <c r="N43" s="7">
+        <v>3255934</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
